--- a/_Osteoporosis survey  (Responses).xlsx
+++ b/_Osteoporosis survey  (Responses).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rushi\OneDrive\डेस्कटॉप\Reserch ostioporosis\research-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -241,18 +249,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -263,46 +272,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -492,30 +502,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="78.75"/>
-    <col customWidth="1" min="6" max="6" width="29.38"/>
-    <col customWidth="1" min="7" max="13" width="18.88"/>
+    <col min="1" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="78.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,9 +551,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>45179.63398508102</v>
+        <v>45179.633985081018</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -549,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -559,9 +572,9 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>45179.63476341435</v>
+        <v>45179.634763414353</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -570,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -580,9 +593,9 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>45179.6351242824</v>
+        <v>45179.635124282402</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -591,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -601,9 +614,9 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>45179.63541324074</v>
+        <v>45179.635413240743</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -612,15 +625,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>45179.63570646991</v>
+        <v>45179.635706469911</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -629,15 +642,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>45179.63599895833</v>
+        <v>45179.635998958329</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -646,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -656,9 +669,9 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>45179.63660261574</v>
+        <v>45179.636602615741</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -670,7 +683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45179.637144444445</v>
       </c>
@@ -681,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -691,9 +704,9 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>45179.6375155787</v>
+        <v>45179.637515578703</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -702,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>23</v>
@@ -712,9 +725,9 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>45179.63817790509</v>
+        <v>45179.638177905093</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -723,7 +736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45179.64942292824</v>
       </c>
@@ -734,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>27</v>
@@ -744,7 +757,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45179.649544444444</v>
       </c>
@@ -755,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>27</v>
@@ -765,9 +778,9 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>45179.64961180555</v>
+        <v>45179.649611805551</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -776,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>27</v>
@@ -786,9 +799,9 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>45179.65067582176</v>
+        <v>45179.650675821758</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
@@ -797,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>23</v>
@@ -807,9 +820,9 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>45179.6507146875</v>
+        <v>45179.650714687501</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
@@ -818,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>23</v>
@@ -828,9 +841,9 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>45179.65120277778</v>
+        <v>45179.651202777779</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>30</v>
@@ -839,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>31</v>
@@ -849,9 +862,9 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>45179.65271934027</v>
+        <v>45179.652719340273</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>32</v>
@@ -860,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>23</v>
@@ -870,9 +883,9 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>45179.65277166667</v>
+        <v>45179.652771666668</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -881,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>34</v>
@@ -891,9 +904,9 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>45179.65306049769</v>
+        <v>45179.653060497687</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -902,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>36</v>
@@ -912,9 +925,9 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>45179.6534437963</v>
+        <v>45179.653443796298</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -923,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>38</v>
@@ -933,7 +946,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45179.653703344906</v>
       </c>
@@ -944,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>36</v>
@@ -954,15 +967,15 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>45179.65389087963</v>
+        <v>45179.653890879628</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>41</v>
@@ -972,7 +985,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45179.654957314815</v>
       </c>
@@ -983,13 +996,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45179.655920335645</v>
       </c>
@@ -1000,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>41</v>
@@ -1010,9 +1023,9 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>45179.65632894676</v>
+        <v>45179.656328946759</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>45</v>
@@ -1021,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>46</v>
@@ -1031,9 +1044,9 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>45179.65640309028</v>
+        <v>45179.656403090281</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>47</v>
@@ -1042,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>48</v>
@@ -1052,9 +1065,9 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>45179.6572475</v>
+        <v>45179.657247499999</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>49</v>
@@ -1063,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>36</v>
@@ -1073,7 +1086,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45179.657647280095</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>45179.658234953706</v>
       </c>
@@ -1095,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>48</v>
@@ -1105,9 +1118,9 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>45179.65843226852</v>
+        <v>45179.658432268523</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>52</v>
@@ -1116,13 +1129,13 @@
         <v>53</v>
       </c>
       <c r="D31" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>45179.65850892361</v>
       </c>
@@ -1133,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>23</v>
@@ -1143,9 +1156,9 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>45179.65920142361</v>
+        <v>45179.659201423608</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -1154,15 +1167,15 @@
         <v>53</v>
       </c>
       <c r="D33" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>45179.65982443287</v>
+        <v>45179.659824432871</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>57</v>
@@ -1171,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>38</v>
@@ -1181,7 +1194,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>45179.660085717594</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>59</v>
@@ -1199,9 +1212,9 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>45179.66051393519</v>
+        <v>45179.660513935189</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>60</v>
@@ -1210,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>23</v>
@@ -1220,7 +1233,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>45179.66102049769</v>
       </c>
@@ -1231,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>61</v>
@@ -1241,7 +1254,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>45179.66148318287</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>23</v>
@@ -1262,9 +1275,9 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>45179.66154208333</v>
+        <v>45179.661542083333</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>62</v>
@@ -1273,7 +1286,7 @@
         <v>58</v>
       </c>
       <c r="D39" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>63</v>
@@ -1283,7 +1296,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>45179.661913749995</v>
       </c>
@@ -1294,7 +1307,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>65</v>
@@ -1304,7 +1317,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>45179.66225572917</v>
       </c>
@@ -1315,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>59</v>
@@ -1325,7 +1338,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>45179.662259652774</v>
       </c>
@@ -1336,7 +1349,7 @@
         <v>58</v>
       </c>
       <c r="D42" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>67</v>
@@ -1346,9 +1359,9 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>45179.66308008102</v>
+        <v>45179.663080081024</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>68</v>
@@ -1357,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>69</v>
@@ -1367,9 +1380,9 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>45179.66350946759</v>
+        <v>45179.663509467588</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>70</v>
@@ -1378,15 +1391,15 @@
         <v>53</v>
       </c>
       <c r="D44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>45179.66420513889</v>
+        <v>45179.664205138892</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>71</v>
@@ -1395,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>41</v>
@@ -1405,9 +1418,9 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>45179.66531334491</v>
+        <v>45179.665313344907</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>72</v>
@@ -1416,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>69</v>
@@ -1426,9 +1439,9 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>45179.66641653935</v>
+        <v>45179.666416539352</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>73</v>
@@ -1437,7 +1450,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>69</v>
@@ -1447,7 +1460,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45179.666583530096</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>69</v>
@@ -1468,19 +1481,18 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="4">
         <f>AVERAGE(D2:D48)</f>
-        <v>5.590909091</v>
+        <v>5.5909090909090908</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>